--- a/MEDIA/2998_拉亞直營營業額(2020-09-01~2020-09-30).xlsx
+++ b/MEDIA/2998_拉亞直營營業額(2020-09-01~2020-09-30).xlsx
@@ -514,34 +514,34 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>15841</v>
+        <v>16401</v>
       </c>
       <c r="E3" t="n">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F3" t="n">
-        <v>7625</v>
+        <v>8045</v>
       </c>
       <c r="G3" t="n">
-        <v>48.1</v>
+        <v>49.1</v>
       </c>
       <c r="H3" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I3" t="n">
-        <v>5920</v>
+        <v>5960</v>
       </c>
       <c r="J3" t="n">
-        <v>37.4</v>
+        <v>36.3</v>
       </c>
       <c r="K3" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L3" t="n">
-        <v>2051</v>
+        <v>2151</v>
       </c>
       <c r="M3" t="n">
-        <v>12.9</v>
+        <v>13.1</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -580,10 +580,10 @@
         <v>0</v>
       </c>
       <c r="Z3" t="n">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="AA3" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4">
@@ -3176,31 +3176,31 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>608929</v>
+        <v>609489</v>
       </c>
       <c r="E33" t="n">
-        <v>1973</v>
+        <v>1977</v>
       </c>
       <c r="F33" t="n">
-        <v>253062</v>
+        <v>253482</v>
       </c>
       <c r="G33" t="n">
         <v>41.6</v>
       </c>
       <c r="H33" t="n">
-        <v>2668</v>
+        <v>2669</v>
       </c>
       <c r="I33" t="n">
-        <v>202103</v>
+        <v>202143</v>
       </c>
       <c r="J33" t="n">
         <v>33.2</v>
       </c>
       <c r="K33" t="n">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="L33" t="n">
-        <v>35397</v>
+        <v>35497</v>
       </c>
       <c r="M33" t="n">
         <v>5.8</v>
@@ -3230,7 +3230,7 @@
         <v>81325</v>
       </c>
       <c r="V33" t="n">
-        <v>13.4</v>
+        <v>13.3</v>
       </c>
       <c r="W33" t="n">
         <v>1</v>
@@ -3242,7 +3242,7 @@
         <v>0</v>
       </c>
       <c r="Z33" t="n">
-        <v>5638</v>
+        <v>5644</v>
       </c>
       <c r="AA33" t="n">
         <v>108</v>
